--- a/Project_Document/안드로이드플젝_v0.2.xlsx
+++ b/Project_Document/안드로이드플젝_v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JH\Desktop\안드로이드APP플젝\프로토타입앱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CreditAppraisal\Project_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$B$1:$BM$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -372,20 +371,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. WBS 일정 회의
-- 프로토타입 개발일정 2주에서 1주 더 추가 하기로 협의 (김정진, 김기훈 동일의견)
-- 프로토타입 개발때는 공부와 병행하기에 속도가 더딜것 같다는 의견
-- 화면설계서를 최대한 빨리 만들어서 현재 레이아웃 공부할 때 활용할 수 있도록 해보기
-2. 2차개발 시에는 Layout 템플릿작업(목록,상세,실행거래) / 데이터 네트워크 통신모듈 공통소스 개발을 나눠서 개발전에 공통작업 미리해보기
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 화면설계서 확정
 2. 프로토타입 APP 업무분장
   -각자맡고싶어하는 프로그램 목록으로 할당
 3. 최근통화목록을 가져와서 Log 찍어내는 샘플소스 설명(박진호)
 4. 기본 레이아웃 만들어서 GitHub에 commit 하기로 (김정진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. WBS 일정 회의
+- 프로토타입 개발일정 2주에서 1주 더 추가 하기로 협의 (김정진, 김기훈 동일의견)
+- 프로토타입 개발때는 공부와 병행하기에 속도가 더딜것 같다는 의견
+- 화면설계서를 최대한 빨리 만들어서 현재 레이아웃 공부할 때 활용할 수 있도록 해보기
+2. 2차개발 시에는 Layout 템플릿작업(목록,상세,실행거래) / 데이터 네트워크 통신모듈 공통소스 개발을 나눠서 개발전에 공통작업 미리해보기
+3. GitHub 경로
+ - https://github.com/pandaboo/CreditAppraisal.git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,6 +1219,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1241,9 +1244,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1994,15 +1994,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:65" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="2:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H2" s="8">
@@ -2340,10 +2340,10 @@
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="38">
         <f>MIN(E5:E5)</f>
         <v>43066</v>
@@ -2492,10 +2492,10 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="6">
         <f>MIN(E7:E9)</f>
         <v>43066</v>
@@ -2796,10 +2796,10 @@
       <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="6">
         <f>MIN(E11:E13)</f>
         <v>43069</v>
@@ -3096,10 +3096,10 @@
       <c r="B14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="68"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="38">
         <f>MIN(E15:E15)</f>
         <v>43095</v>
@@ -3248,10 +3248,10 @@
       <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="6">
         <f>MIN(E17:E19)</f>
         <v>43095</v>
@@ -3552,10 +3552,10 @@
       <c r="B20" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="6">
         <f>MIN(E21:E23)</f>
         <v>43097</v>
@@ -4083,23 +4083,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57">
         <v>43066</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70">
+      <c r="A3" s="62">
         <v>43067</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>86</v>
@@ -4644,7 +4644,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4662,7 +4662,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="1" t="s">
         <v>71</v>
       </c>

--- a/Project_Document/안드로이드플젝_v0.2.xlsx
+++ b/Project_Document/안드로이드플젝_v0.2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CreditAppraisal\Project_Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>시스템 구조 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +215,6 @@
   </si>
   <si>
     <t>내정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
@@ -1723,7 +1714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1758,7 +1749,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4061,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4088,10 +4079,10 @@
         <v>43066</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4099,10 +4090,10 @@
         <v>43067</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4200,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4231,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -4243,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4255,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
@@ -4267,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -4279,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -4291,7 +4282,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -4303,7 +4294,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
@@ -4315,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -4327,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -4339,7 +4330,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
@@ -4353,98 +4344,84 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="56">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="56">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="56">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="56">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="56">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="56">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="56">
@@ -4533,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -4545,10 +4522,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -4557,10 +4534,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -4569,10 +4546,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -4581,10 +4558,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -4593,10 +4570,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -4625,124 +4602,124 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>62</v>
-      </c>
       <c r="C1" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>73</v>
-      </c>
       <c r="F1" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="70"/>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="70"/>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="70"/>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="70"/>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Document/안드로이드플젝_v0.2.xlsx
+++ b/Project_Document/안드로이드플젝_v0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$B$1:$BM$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>시스템 구조 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
   </si>
   <si>
     <t>MainActivity.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_main.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,6 +373,14 @@
 2. 2차개발 시에는 Layout 템플릿작업(목록,상세,실행거래) / 데이터 네트워크 통신모듈 공통소스 개발을 나눠서 개발전에 공통작업 미리해보기
 3. GitHub 경로
  - https://github.com/pandaboo/CreditAppraisal.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsafternoon.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4079,7 +4083,7 @@
         <v>43066</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>59</v>
@@ -4090,10 +4094,10 @@
         <v>43067</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4191,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4482,7 +4486,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4587,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4617,7 +4621,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4632,10 +4636,10 @@
         <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,11 +4649,11 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4659,11 +4663,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4673,11 +4679,11 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4687,11 +4693,11 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4701,11 +4707,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4715,11 +4721,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Document/안드로이드플젝_v0.2.xlsx
+++ b/Project_Document/안드로이드플젝_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>시스템 구조 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,10 +313,6 @@
   </si>
   <si>
     <t>SmsAftAvrCnt.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmsNgtAvrCnt.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -381,6 +377,14 @@
   </si>
   <si>
     <t>smsafternoon.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsnight.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmsNgtAvrCnt.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4083,7 +4087,7 @@
         <v>43066</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>59</v>
@@ -4094,10 +4098,10 @@
         <v>43067</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4592,7 +4596,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4621,7 +4625,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4636,10 +4640,10 @@
         <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4649,11 +4653,11 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4666,10 +4670,10 @@
         <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,11 +4683,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4693,11 +4699,11 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4707,11 +4713,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4721,11 +4727,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
